--- a/Benchmark_System/MAXIMUM SENSITIVITY/Multiple Equal Poles 4/Multiple Equal Poles4_ms14.xlsx
+++ b/Benchmark_System/MAXIMUM SENSITIVITY/Multiple Equal Poles 4/Multiple Equal Poles4_ms14.xlsx
@@ -161,16 +161,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.0439875032088586</v>
+        <v>2.0392811861552365</v>
       </c>
       <c r="C2">
-        <v>3.4650136929652535</v>
+        <v>3.4629392781932751</v>
       </c>
       <c r="D2">
-        <v>2.6521612855873262</v>
+        <v>2.6485000625538451</v>
       </c>
       <c r="E2">
-        <v>0.61274161405073269</v>
+        <v>0.58944185053856268</v>
       </c>
     </row>
     <row r="3">
@@ -178,16 +178,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.2213971546659899</v>
+        <v>2.1138912544393529</v>
       </c>
       <c r="C3">
-        <v>5.0962161423939998</v>
+        <v>5.0807557081056283</v>
       </c>
       <c r="D3">
-        <v>3.3523004794773699</v>
+        <v>3.2237244627230139</v>
       </c>
       <c r="E3">
-        <v>21.416673262379501</v>
+        <v>13.47460923734595</v>
       </c>
     </row>
     <row r="4">
@@ -195,16 +195,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.9505849689909698</v>
+        <v>2.8834719717798873</v>
       </c>
       <c r="C4">
-        <v>2.24912310129299</v>
+        <v>2.2624093313236404</v>
       </c>
       <c r="D4">
-        <v>7.2990165730309204</v>
+        <v>7.1318483490521212</v>
       </c>
       <c r="E4">
-        <v>3.61413835410836</v>
+        <v>3.7828749099864116</v>
       </c>
     </row>
     <row r="5">
@@ -212,16 +212,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.5095795559368601</v>
+        <v>1.4741282379144907</v>
       </c>
       <c r="C5">
-        <v>1.1270175529762001</v>
+        <v>1.139169597234146</v>
       </c>
       <c r="D5">
-        <v>1.2791953139946499</v>
+        <v>1.2782253108819632</v>
       </c>
       <c r="E5">
-        <v>1.3553534766300399</v>
+        <v>1.4295808183693488</v>
       </c>
     </row>
     <row r="6">
@@ -229,7 +229,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>1.1516889932737699</v>
+        <v>1.2794941045644952</v>
       </c>
     </row>
     <row r="7">
@@ -271,16 +271,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>120.579985475212</v>
+        <v>129.73728728622714</v>
       </c>
       <c r="C9">
-        <v>101.17420321050299</v>
+        <v>104.54463192621789</v>
       </c>
       <c r="D9">
-        <v>112.581389180334</v>
+        <v>121.9116561394128</v>
       </c>
       <c r="E9">
-        <v>3.6338942316330902</v>
+        <v>3.8834025069238201</v>
       </c>
     </row>
     <row r="10">
@@ -288,7 +288,7 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>104.222112570915</v>
+        <v>115.01070354294002</v>
       </c>
     </row>
     <row r="11">
@@ -296,16 +296,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.837973514303749</v>
+        <v>1.7691887389120702</v>
       </c>
       <c r="C11">
-        <v>1.6838765648852347</v>
+        <v>1.6584790278479236</v>
       </c>
       <c r="D11">
-        <v>2.0022056103563566</v>
+        <v>1.956478738785933</v>
       </c>
       <c r="E11">
-        <v>1.8440380491387349</v>
+        <v>1.5952437695485573</v>
       </c>
     </row>
     <row r="12">
@@ -313,16 +313,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.4625963086474481</v>
+        <v>1.5424828499625853</v>
       </c>
       <c r="C12">
-        <v>2.2274406149948285</v>
+        <v>2.2562564346776854</v>
       </c>
       <c r="D12">
-        <v>1.8271569885991867</v>
+        <v>1.8699321704864649</v>
       </c>
       <c r="E12">
-        <v>0.28691656669226961</v>
+        <v>0.38201809987273588</v>
       </c>
     </row>
     <row r="13">
@@ -330,16 +330,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>9.4452983390401677</v>
+        <v>9.798614424951829</v>
       </c>
       <c r="C13">
-        <v>15.505506528092418</v>
+        <v>15.377924706427049</v>
       </c>
       <c r="D13">
-        <v>10.784691279583656</v>
+        <v>10.677423657901612</v>
       </c>
       <c r="E13">
-        <v>2.2666061810691298</v>
+        <v>1.8909704245457521</v>
       </c>
     </row>
     <row r="14">
@@ -347,16 +347,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>10.89029365734666</v>
+        <v>9.3039135305424292</v>
       </c>
       <c r="C14">
-        <v>9.702386828443089</v>
+        <v>9.7580577738606067</v>
       </c>
       <c r="D14">
-        <v>4.5781344439618898</v>
+        <v>4.0576660440209134</v>
       </c>
       <c r="E14">
-        <v>26.953522539115561</v>
+        <v>14.977138472934737</v>
       </c>
     </row>
     <row r="15">
@@ -381,16 +381,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.1089029365734666</v>
+        <v>1.0930391353054243</v>
       </c>
       <c r="C16">
-        <v>1.0970238682844309</v>
+        <v>1.0975805777386061</v>
       </c>
       <c r="D16">
-        <v>1.0457813444396244</v>
+        <v>1.0405766604402069</v>
       </c>
       <c r="E16">
-        <v>1.2695352253911556</v>
+        <v>1.1497713847293474</v>
       </c>
     </row>
     <row r="17">
@@ -398,16 +398,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3.1411213950053329</v>
+        <v>3.2625679595441017</v>
       </c>
       <c r="C17">
-        <v>8.6201698495427426</v>
+        <v>8.5820543076021991</v>
       </c>
       <c r="D17">
-        <v>8.1989247298599306</v>
+        <v>8.3214051837299294</v>
       </c>
       <c r="E17">
-        <v>0.68689807805758873</v>
+        <v>0.85058340055041948</v>
       </c>
     </row>
     <row r="18">
@@ -415,16 +415,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3.2491408423042318</v>
+        <v>3.459312148145147</v>
       </c>
       <c r="C18">
-        <v>2.599412200892778</v>
+        <v>2.6505218960245864</v>
       </c>
       <c r="D18">
-        <v>2.0304795943269265</v>
+        <v>2.0849063265616592</v>
       </c>
       <c r="E18">
-        <v>7.522314907195752</v>
+        <v>10.695276515964114</v>
       </c>
     </row>
     <row r="19">
@@ -432,16 +432,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>59.153034547374247</v>
+        <v>62.673020715848004</v>
       </c>
       <c r="C19">
-        <v>58.128767214506816</v>
+        <v>58.16273038595746</v>
       </c>
       <c r="D19">
-        <v>69.367761718170513</v>
+        <v>69.237711988083632</v>
       </c>
       <c r="E19">
-        <v>40.577687315818096</v>
+        <v>51.02403582268694</v>
       </c>
     </row>
   </sheetData>
